--- a/UG_data_analysis/outputs/reactivity/NoIndividual/modelOutputs_LC.xlsx
+++ b/UG_data_analysis/outputs/reactivity/NoIndividual/modelOutputs_LC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\ownCloud\Papers\Pittsburgh\ug_context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/reactivity/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB865FC5-D5D2-FA47-AF32-EB21CA9346CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anger" sheetId="2" r:id="rId1"/>
@@ -32,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Q1anger copy" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Q1anger copy" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/reactivity/NoIndividual/Q1anger copy.txt" delimited="0">
       <textFields count="6">
         <textField/>
@@ -45,7 +46,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Q1fairness copy" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Q1fairness copy" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/reactivity/NoIndividual/Q1fairness copy.txt" delimited="0">
       <textFields count="6">
         <textField/>
@@ -57,7 +58,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Q1sympathy copy" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Q1sympathy copy" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/reactivity/NoIndividual/Q1sympathy copy.txt" delimited="0">
       <textFields count="6">
         <textField/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -257,16 +258,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -287,15 +288,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Q1anger copy" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Q1anger copy" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Q1fairness copy" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Q1fairness copy" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Q1sympathy copy" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Q1sympathy copy" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -877,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
@@ -1160,21 +1161,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -1443,22 +1444,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="33" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="9" width="10.875" style="3"/>
-    <col min="10" max="16384" width="10.875" style="2"/>
+    <col min="6" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:9">
@@ -1466,16 +1467,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1488,16 +1489,16 @@
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="12">
         <v>1.663</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="12">
         <v>19.98</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1508,16 +1509,16 @@
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <v>0.52</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="12">
         <v>5.6369999999999996</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1528,16 +1529,16 @@
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="12">
         <v>0.39200000000000002</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="12">
         <v>0.69499999999999995</v>
       </c>
     </row>
@@ -1548,16 +1549,16 @@
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <v>0.115</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="12">
         <v>0.108</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="12">
         <v>0.91400000000000003</v>
       </c>
     </row>
@@ -1568,16 +1569,16 @@
       <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="12">
         <v>2.4E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="12">
         <v>0.83699999999999997</v>
       </c>
     </row>
@@ -1588,13 +1589,13 @@
         <v>28</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4"/>
@@ -1604,36 +1605,36 @@
       <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="12">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>-1.2130000000000001</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="12">
         <v>-0.16200000000000001</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>-1.097</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <v>0.27300000000000002</v>
       </c>
     </row>
@@ -1646,16 +1647,16 @@
       <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="12">
         <v>-0.161</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>-1.2350000000000001</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <v>0.217</v>
       </c>
     </row>
@@ -1666,16 +1667,16 @@
       <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="12">
         <v>-0.22800000000000001</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>-1.59</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="12">
         <v>0.112</v>
       </c>
     </row>
@@ -1688,16 +1689,16 @@
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="12">
         <v>-0.159</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="12">
         <v>0.13</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="12">
         <v>-1.216</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="12">
         <v>0.224</v>
       </c>
     </row>
@@ -1708,40 +1709,40 @@
       <c r="E18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="12">
         <v>-0.111</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="12">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="12">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="12">
         <v>0.438</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="2:9" ht="20" thickBot="1">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12">
+      <c r="E19" s="10"/>
+      <c r="F19" s="13">
         <v>-0.54100000000000004</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <v>-7.38</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="19.5" thickTop="1">
+    <row r="20" spans="2:9" ht="20" thickTop="1">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
@@ -1750,16 +1751,16 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="12">
         <v>-1.383</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="12">
         <v>-17.035</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1770,16 +1771,16 @@
       <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="12">
         <v>-1.3180000000000001</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="12">
         <v>0.09</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="12">
         <v>-14.651999999999999</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1790,16 +1791,16 @@
       <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="12">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="12">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="12">
         <v>-0.65400000000000003</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="12">
         <v>0.51400000000000001</v>
       </c>
     </row>
@@ -1810,16 +1811,16 @@
       <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="12">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="12">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="12">
         <v>0.87</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="12">
         <v>0.38500000000000001</v>
       </c>
     </row>
@@ -1829,16 +1830,16 @@
       <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="12">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="12">
         <v>0.41699999999999998</v>
       </c>
     </row>
@@ -1849,13 +1850,13 @@
         <v>28</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="4"/>
@@ -1865,16 +1866,16 @@
       <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="12">
         <v>-0.04</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="12">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="12">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="12">
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -1885,16 +1886,16 @@
       <c r="E27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="12">
         <v>5.5E-2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="12">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="12">
         <v>0.38500000000000001</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="12">
         <v>0.7</v>
       </c>
     </row>
@@ -1907,16 +1908,16 @@
       <c r="E28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="12">
         <v>0.127</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="12">
         <v>0.02</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="12">
         <v>0.98399999999999999</v>
       </c>
     </row>
@@ -1927,16 +1928,16 @@
       <c r="E29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="12">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="12">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="12">
         <v>0.29199999999999998</v>
       </c>
     </row>
@@ -1949,16 +1950,16 @@
       <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="12">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="12">
         <v>0.127</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="12">
         <v>-1.145</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="12">
         <v>0.253</v>
       </c>
     </row>
@@ -1969,40 +1970,40 @@
       <c r="E31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="12">
         <v>-0.224</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="12">
         <v>-1.607</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="12">
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10" t="s">
+    <row r="32" spans="2:9" ht="20" thickBot="1">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12">
+      <c r="E32" s="10"/>
+      <c r="F32" s="13">
         <v>0.67800000000000005</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="13">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="13">
         <v>10.673999999999999</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="19.5" thickTop="1">
+    <row r="33" spans="2:9" ht="20" thickTop="1">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
@@ -2011,16 +2012,16 @@
       <c r="E33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="12">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="12">
         <v>0.106</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="12">
         <v>-0.54300000000000004</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="12">
         <v>0.58799999999999997</v>
       </c>
     </row>
@@ -2031,16 +2032,16 @@
       <c r="E34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="12">
         <v>-0.121</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="12">
         <v>-1.036</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -2051,16 +2052,16 @@
       <c r="E35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="12">
         <v>0.313</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="12">
         <v>0.161</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="12">
         <v>1.9379999999999999</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
@@ -2071,16 +2072,16 @@
       <c r="E36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="12">
         <v>0.13</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="12">
         <v>0.156</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="12">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="12">
         <v>0.40699999999999997</v>
       </c>
     </row>
@@ -2091,16 +2092,16 @@
       <c r="E37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="12">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="12">
         <v>0.159</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="12">
         <v>1.6479999999999999</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="12">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -2111,13 +2112,13 @@
         <v>28</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4"/>
@@ -2127,16 +2128,16 @@
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="12">
         <v>-0.69099999999999995</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="12">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="12">
         <v>-4.0279999999999996</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="12">
         <v>1E-4</v>
       </c>
     </row>
@@ -2147,16 +2148,16 @@
       <c r="E40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="12">
         <v>-0.44</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="12">
         <v>0.188</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="12">
         <v>-2.343</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="12">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -2169,16 +2170,16 @@
       <c r="E41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="12">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="12">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="12">
         <v>-1.468</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="12">
         <v>0.14199999999999999</v>
       </c>
     </row>
@@ -2189,16 +2190,16 @@
       <c r="E42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="12">
         <v>-0.109</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="12">
         <v>0.183</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="12">
         <v>-0.59899999999999998</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="12">
         <v>0.54900000000000004</v>
       </c>
     </row>
@@ -2211,16 +2212,16 @@
       <c r="E43" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="12">
         <v>-0.53500000000000003</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="12">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="12">
         <v>-3.2280000000000002</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="12">
         <v>1E-3</v>
       </c>
     </row>
@@ -2231,41 +2232,42 @@
       <c r="E44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="12">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="12">
         <v>0.182</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="12">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="12">
         <v>0.438</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10" t="s">
+    <row r="45" spans="2:9" ht="20" thickBot="1">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12">
+      <c r="E45" s="10"/>
+      <c r="F45" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="13">
         <v>0.1</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="13">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="19.5" thickTop="1"/>
+    <row r="46" spans="2:9" ht="20" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/UG_data_analysis/outputs/reactivity/NoIndividual/modelOutputs_LC.xlsx
+++ b/UG_data_analysis/outputs/reactivity/NoIndividual/modelOutputs_LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/reactivity/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB865FC5-D5D2-FA47-AF32-EB21CA9346CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8CAE7-C1C1-4348-9455-4013F6546591}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
   <si>
     <t>Estimate</t>
   </si>
@@ -176,13 +176,19 @@
   </si>
   <si>
     <t>Fairness</t>
+  </si>
+  <si>
+    <t>&lt; .001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +211,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +280,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +618,7 @@
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F15"/>
+      <selection activeCell="A4" sqref="A4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1445,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B6:I46"/>
+  <dimension ref="B6:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -1459,10 +1478,12 @@
     <col min="4" max="4" width="33" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
     <col min="6" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="37.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:17">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1479,8 +1500,14 @@
       <c r="I6" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
@@ -1498,11 +1525,17 @@
       <c r="H7" s="12">
         <v>19.98</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="I7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="7"/>
@@ -1518,11 +1551,17 @@
       <c r="H8" s="12">
         <v>5.6369999999999996</v>
       </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="I8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
@@ -1538,11 +1577,17 @@
       <c r="H9" s="12">
         <v>0.39200000000000002</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="15">
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="7"/>
@@ -1558,11 +1603,17 @@
       <c r="H10" s="12">
         <v>0.108</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="15">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
@@ -1578,11 +1629,17 @@
       <c r="H11" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="15">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
@@ -1592,9 +1649,15 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="I12" s="15"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1614,11 +1677,17 @@
       <c r="H13" s="12">
         <v>-1.2130000000000001</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="15">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
@@ -1634,11 +1703,17 @@
       <c r="H14" s="12">
         <v>-1.097</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="15">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7" t="s">
@@ -1656,11 +1731,17 @@
       <c r="H15" s="12">
         <v>-1.2350000000000001</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="15">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
@@ -1676,11 +1757,17 @@
       <c r="H16" s="12">
         <v>-1.59</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="15">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7" t="s">
@@ -1698,11 +1785,17 @@
       <c r="H17" s="12">
         <v>-1.216</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="15">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
@@ -1718,11 +1811,12 @@
       <c r="H18" s="12">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="15">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="20" thickBot="1">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:17" ht="20" thickBot="1">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9" t="s">
@@ -1738,11 +1832,12 @@
       <c r="H19" s="13">
         <v>-7.38</v>
       </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="20" thickTop="1">
+      <c r="I19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:17" ht="20" thickTop="1">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
@@ -1760,11 +1855,12 @@
       <c r="H20" s="12">
         <v>-17.035</v>
       </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="I20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
@@ -1780,11 +1876,12 @@
       <c r="H21" s="12">
         <v>-14.651999999999999</v>
       </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="I21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
@@ -1800,11 +1897,12 @@
       <c r="H22" s="12">
         <v>-0.65400000000000003</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="15">
         <v>0.51400000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7"/>
@@ -1820,11 +1918,12 @@
       <c r="H23" s="12">
         <v>0.87</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="15">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:17">
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
@@ -1839,11 +1938,12 @@
       <c r="H24" s="12">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="15">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6" t="s">
@@ -1853,9 +1953,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="I25" s="15"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1875,11 +1976,12 @@
       <c r="H26" s="12">
         <v>-0.30299999999999999</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="15">
         <v>0.76200000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
@@ -1895,11 +1997,12 @@
       <c r="H27" s="12">
         <v>0.38500000000000001</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="7" t="s">
@@ -1917,11 +2020,12 @@
       <c r="H28" s="12">
         <v>0.02</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="15">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
@@ -1937,11 +2041,12 @@
       <c r="H29" s="12">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="15">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="7" t="s">
@@ -1959,11 +2064,12 @@
       <c r="H30" s="12">
         <v>-1.145</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="15">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:17">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="7"/>
@@ -1979,11 +2085,12 @@
       <c r="H31" s="12">
         <v>-1.607</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="15">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="20" thickBot="1">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="2:17" ht="20" thickBot="1">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="9" t="s">
@@ -1999,11 +2106,12 @@
       <c r="H32" s="13">
         <v>10.673999999999999</v>
       </c>
-      <c r="I32" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="20" thickTop="1">
+      <c r="I32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="2:13" ht="20" thickTop="1">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6" t="s">
@@ -2021,11 +2129,12 @@
       <c r="H33" s="12">
         <v>-0.54300000000000004</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="15">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
@@ -2041,11 +2150,12 @@
       <c r="H34" s="12">
         <v>-1.036</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="7"/>
@@ -2061,11 +2171,12 @@
       <c r="H35" s="12">
         <v>1.9379999999999999</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
@@ -2081,11 +2192,11 @@
       <c r="H36" s="12">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="15">
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:13">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="7"/>
@@ -2101,11 +2212,11 @@
       <c r="H37" s="12">
         <v>1.6479999999999999</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="15">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:13">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6" t="s">
@@ -2115,9 +2226,9 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="8" t="s">
         <v>33</v>
       </c>
@@ -2137,11 +2248,11 @@
       <c r="H39" s="12">
         <v>-4.0279999999999996</v>
       </c>
-      <c r="I39" s="12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="I39" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
@@ -2157,11 +2268,11 @@
       <c r="H40" s="12">
         <v>-2.343</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="15">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:13">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="7" t="s">
@@ -2179,11 +2290,11 @@
       <c r="H41" s="12">
         <v>-1.468</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="15">
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:13">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="7"/>
@@ -2199,11 +2310,11 @@
       <c r="H42" s="12">
         <v>-0.59899999999999998</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="15">
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:13">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="7" t="s">
@@ -2221,11 +2332,11 @@
       <c r="H43" s="12">
         <v>-3.2280000000000002</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:13">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="7"/>
@@ -2241,11 +2352,11 @@
       <c r="H44" s="12">
         <v>-0.77600000000000002</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="15">
         <v>0.438</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="20" thickBot="1">
+    <row r="45" spans="2:13" ht="20" thickBot="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="9" t="s">
@@ -2261,11 +2372,11 @@
       <c r="H45" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="16">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="20" thickTop="1"/>
+    <row r="46" spans="2:13" ht="20" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
